--- a/Flamco_Project/Data/Data.xlsx
+++ b/Flamco_Project/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>TCID</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>SelectTest</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -402,12 +399,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -423,12 +420,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -442,23 +439,23 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,12 +489,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
